--- a/ReqPowDATA.xlsx
+++ b/ReqPowDATA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,6 +491,9 @@
       <c r="T1" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="U1" s="1" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -499,61 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>131.1622551644561</v>
+        <v>95.52212985918527</v>
       </c>
       <c r="C2" t="n">
-        <v>262.3245103289121</v>
+        <v>191.0442597183705</v>
       </c>
       <c r="D2" t="n">
-        <v>2623.245103289121</v>
+        <v>1183.164825566538</v>
       </c>
       <c r="E2" t="n">
-        <v>2623.245103289121</v>
+        <v>1910.442597183705</v>
       </c>
       <c r="F2" t="n">
-        <v>1862.044882880652</v>
+        <v>1910.442597183705</v>
       </c>
       <c r="G2" t="n">
-        <v>1862.044882880652</v>
+        <v>1736.855654089383</v>
       </c>
       <c r="H2" t="n">
-        <v>1859.502458845425</v>
+        <v>1736.855654089383</v>
       </c>
       <c r="I2" t="n">
-        <v>1859.502458845425</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="J2" t="n">
-        <v>262.3245103289121</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="K2" t="n">
-        <v>2623.245103289121</v>
+        <v>191.0442597183705</v>
       </c>
       <c r="L2" t="n">
-        <v>2623.245103289121</v>
+        <v>1910.442597183705</v>
       </c>
       <c r="M2" t="n">
-        <v>1859.502458845425</v>
+        <v>1910.442597183705</v>
       </c>
       <c r="N2" t="n">
-        <v>1859.502458845425</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="O2" t="n">
-        <v>1859.502458845425</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="P2" t="n">
-        <v>1859.502458845425</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="Q2" t="n">
-        <v>262.3245103289121</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="R2" t="n">
-        <v>262.3245103289121</v>
+        <v>191.0442597183705</v>
       </c>
       <c r="S2" t="n">
-        <v>262.3245103289121</v>
+        <v>191.0442597183705</v>
       </c>
       <c r="T2" t="n">
-        <v>131.1622551644561</v>
+        <v>191.0442597183705</v>
+      </c>
+      <c r="U2" t="n">
+        <v>95.52212985918527</v>
       </c>
     </row>
     <row r="3">
@@ -563,61 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.1622551644561</v>
+        <v>95.52212985918527</v>
       </c>
       <c r="C3" t="n">
-        <v>262.3245103289121</v>
+        <v>191.0442597183705</v>
       </c>
       <c r="D3" t="n">
-        <v>2052.951016882615</v>
+        <v>960.1258385460237</v>
       </c>
       <c r="E3" t="n">
-        <v>2052.951016882615</v>
+        <v>1566.678853995118</v>
       </c>
       <c r="F3" t="n">
-        <v>1944.249926686333</v>
+        <v>1566.678853995118</v>
       </c>
       <c r="G3" t="n">
-        <v>1944.249926686333</v>
+        <v>1793.4318591816</v>
       </c>
       <c r="H3" t="n">
-        <v>1859.502458845425</v>
+        <v>1793.4318591816</v>
       </c>
       <c r="I3" t="n">
-        <v>1859.502458845425</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="J3" t="n">
-        <v>262.3245103289121</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="K3" t="n">
-        <v>2052.951016882615</v>
+        <v>191.0442597183705</v>
       </c>
       <c r="L3" t="n">
-        <v>2052.951016882615</v>
+        <v>1566.678853995118</v>
       </c>
       <c r="M3" t="n">
-        <v>1859.502458845425</v>
+        <v>1566.678853995118</v>
       </c>
       <c r="N3" t="n">
-        <v>1859.502458845425</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="O3" t="n">
-        <v>1859.502458845425</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="P3" t="n">
-        <v>1859.502458845425</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="Q3" t="n">
-        <v>262.3245103289121</v>
+        <v>1618.971453954875</v>
       </c>
       <c r="R3" t="n">
-        <v>262.3245103289121</v>
+        <v>191.0442597183705</v>
       </c>
       <c r="S3" t="n">
-        <v>262.3245103289121</v>
+        <v>191.0442597183705</v>
       </c>
       <c r="T3" t="n">
-        <v>131.1622551644561</v>
+        <v>191.0442597183705</v>
+      </c>
+      <c r="U3" t="n">
+        <v>95.52212985918527</v>
       </c>
     </row>
     <row r="4">
@@ -633,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>570.294086406506</v>
+        <v>223.0389870205144</v>
       </c>
       <c r="E4" t="n">
-        <v>570.294086406506</v>
+        <v>343.7637431885872</v>
       </c>
       <c r="F4" t="n">
-        <v>-82.20504380568063</v>
+        <v>343.7637431885872</v>
       </c>
       <c r="G4" t="n">
-        <v>-82.20504380568063</v>
+        <v>-56.57620509221743</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-56.57620509221743</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -654,13 +663,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>570.294086406506</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>570.294086406506</v>
+        <v>343.7637431885872</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>343.7637431885872</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -681,6 +690,9 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
         <v>0</v>
       </c>
     </row>

--- a/ReqPowDATA.xlsx
+++ b/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>95.52212985918527</v>
+        <v>97.30896732655835</v>
       </c>
       <c r="C2" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="D2" t="n">
-        <v>1183.164825566538</v>
+        <v>1205.291190600141</v>
       </c>
       <c r="E2" t="n">
-        <v>1910.442597183705</v>
+        <v>1946.179346531167</v>
       </c>
       <c r="F2" t="n">
-        <v>1910.442597183705</v>
+        <v>1946.179346531167</v>
       </c>
       <c r="G2" t="n">
-        <v>1736.855654089383</v>
+        <v>1769.343009526402</v>
       </c>
       <c r="H2" t="n">
-        <v>1736.855654089383</v>
+        <v>1769.343009526402</v>
       </c>
       <c r="I2" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="J2" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="K2" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="L2" t="n">
-        <v>1910.442597183705</v>
+        <v>1946.179346531167</v>
       </c>
       <c r="M2" t="n">
-        <v>1910.442597183705</v>
+        <v>1946.179346531167</v>
       </c>
       <c r="N2" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="O2" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="P2" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="Q2" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="R2" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="S2" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="T2" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="U2" t="n">
-        <v>95.52212985918527</v>
+        <v>97.30896732655835</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>95.52212985918527</v>
+        <v>97.30896732655835</v>
       </c>
       <c r="C3" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="D3" t="n">
-        <v>960.1258385460237</v>
+        <v>978.0799862236493</v>
       </c>
       <c r="E3" t="n">
-        <v>1566.678853995118</v>
+        <v>1595.985081599063</v>
       </c>
       <c r="F3" t="n">
-        <v>1566.678853995118</v>
+        <v>1595.985081599063</v>
       </c>
       <c r="G3" t="n">
-        <v>1793.4318591816</v>
+        <v>1826.977541810535</v>
       </c>
       <c r="H3" t="n">
-        <v>1793.4318591816</v>
+        <v>1826.977541810535</v>
       </c>
       <c r="I3" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="J3" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="K3" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="L3" t="n">
-        <v>1566.678853995118</v>
+        <v>1595.985081599063</v>
       </c>
       <c r="M3" t="n">
-        <v>1566.678853995118</v>
+        <v>1595.985081599063</v>
       </c>
       <c r="N3" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="O3" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="P3" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="Q3" t="n">
-        <v>1618.971453954875</v>
+        <v>1649.252372016327</v>
       </c>
       <c r="R3" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="S3" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="T3" t="n">
-        <v>191.0442597183705</v>
+        <v>194.6179346531167</v>
       </c>
       <c r="U3" t="n">
-        <v>95.52212985918527</v>
+        <v>97.30896732655835</v>
       </c>
     </row>
     <row r="4">
@@ -642,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>223.0389870205144</v>
+        <v>227.2112043764922</v>
       </c>
       <c r="E4" t="n">
-        <v>343.7637431885872</v>
+        <v>350.1942649321037</v>
       </c>
       <c r="F4" t="n">
-        <v>343.7637431885872</v>
+        <v>350.1942649321037</v>
       </c>
       <c r="G4" t="n">
-        <v>-56.57620509221743</v>
+        <v>-57.63453228413297</v>
       </c>
       <c r="H4" t="n">
-        <v>-56.57620509221743</v>
+        <v>-57.63453228413297</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>343.7637431885872</v>
+        <v>350.1942649321037</v>
       </c>
       <c r="M4" t="n">
-        <v>343.7637431885872</v>
+        <v>350.1942649321037</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/ReqPowDATA.xlsx
+++ b/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.30896732655835</v>
+        <v>88.46478119038883</v>
       </c>
       <c r="C2" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="D2" t="n">
-        <v>1205.291190600141</v>
+        <v>1102.089876347605</v>
       </c>
       <c r="E2" t="n">
-        <v>1946.179346531167</v>
+        <v>1769.295623807777</v>
       </c>
       <c r="F2" t="n">
-        <v>1946.179346531167</v>
+        <v>1769.295623807777</v>
       </c>
       <c r="G2" t="n">
-        <v>1769.343009526402</v>
+        <v>1590.547993427122</v>
       </c>
       <c r="H2" t="n">
-        <v>1769.343009526402</v>
+        <v>1590.547993427122</v>
       </c>
       <c r="I2" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="J2" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="K2" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="L2" t="n">
-        <v>1946.179346531167</v>
+        <v>1769.295623807777</v>
       </c>
       <c r="M2" t="n">
-        <v>1946.179346531167</v>
+        <v>1769.295623807777</v>
       </c>
       <c r="N2" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="O2" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="P2" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="Q2" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="R2" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="S2" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="T2" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="U2" t="n">
-        <v>97.30896732655835</v>
+        <v>88.46478119038883</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97.30896732655835</v>
+        <v>88.46478119038883</v>
       </c>
       <c r="C3" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="D3" t="n">
-        <v>978.0799862236493</v>
+        <v>886.6210818666552</v>
       </c>
       <c r="E3" t="n">
-        <v>1595.985081599063</v>
+        <v>1437.199606333079</v>
       </c>
       <c r="F3" t="n">
-        <v>1595.985081599063</v>
+        <v>1437.199606333079</v>
       </c>
       <c r="G3" t="n">
-        <v>1826.977541810535</v>
+        <v>1645.203938875824</v>
       </c>
       <c r="H3" t="n">
-        <v>1826.977541810535</v>
+        <v>1645.203938875824</v>
       </c>
       <c r="I3" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="J3" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="K3" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="L3" t="n">
-        <v>1595.985081599063</v>
+        <v>1437.199606333079</v>
       </c>
       <c r="M3" t="n">
-        <v>1595.985081599063</v>
+        <v>1437.199606333079</v>
       </c>
       <c r="N3" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="O3" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="P3" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="Q3" t="n">
-        <v>1649.252372016327</v>
+        <v>1485.165391385093</v>
       </c>
       <c r="R3" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="S3" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="T3" t="n">
-        <v>194.6179346531167</v>
+        <v>176.9295623807777</v>
       </c>
       <c r="U3" t="n">
-        <v>97.30896732655835</v>
+        <v>88.46478119038883</v>
       </c>
     </row>
     <row r="4">
@@ -642,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>227.2112043764922</v>
+        <v>215.4687944809496</v>
       </c>
       <c r="E4" t="n">
-        <v>350.1942649321037</v>
+        <v>332.0960174746977</v>
       </c>
       <c r="F4" t="n">
-        <v>350.1942649321037</v>
+        <v>332.0960174746977</v>
       </c>
       <c r="G4" t="n">
-        <v>-57.63453228413297</v>
+        <v>-54.65594544870228</v>
       </c>
       <c r="H4" t="n">
-        <v>-57.63453228413297</v>
+        <v>-54.65594544870228</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>350.1942649321037</v>
+        <v>332.0960174746977</v>
       </c>
       <c r="M4" t="n">
-        <v>350.1942649321037</v>
+        <v>332.0960174746977</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>

--- a/ReqPowDATA.xlsx
+++ b/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.46478119038883</v>
+        <v>88.4545441393966</v>
       </c>
       <c r="C2" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="D2" t="n">
-        <v>1102.089876347605</v>
+        <v>1101.96296801947</v>
       </c>
       <c r="E2" t="n">
-        <v>1769.295623807777</v>
+        <v>1769.090882787932</v>
       </c>
       <c r="F2" t="n">
-        <v>1769.295623807777</v>
+        <v>1769.090882787932</v>
       </c>
       <c r="G2" t="n">
-        <v>1590.547993427122</v>
+        <v>1590.364055129905</v>
       </c>
       <c r="H2" t="n">
-        <v>1590.547993427122</v>
+        <v>1590.364055129905</v>
       </c>
       <c r="I2" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="J2" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="K2" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="L2" t="n">
-        <v>1769.295623807777</v>
+        <v>1769.090882787932</v>
       </c>
       <c r="M2" t="n">
-        <v>1769.295623807777</v>
+        <v>1769.090882787932</v>
       </c>
       <c r="N2" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="O2" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="P2" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="Q2" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="R2" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="S2" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="T2" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="U2" t="n">
-        <v>88.46478119038883</v>
+        <v>88.4545441393966</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>88.46478119038883</v>
+        <v>88.4545441393966</v>
       </c>
       <c r="C3" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="D3" t="n">
-        <v>886.6210818666552</v>
+        <v>886.5192438262889</v>
       </c>
       <c r="E3" t="n">
-        <v>1437.199606333079</v>
+        <v>1437.033505445532</v>
       </c>
       <c r="F3" t="n">
-        <v>1437.199606333079</v>
+        <v>1437.033505445532</v>
       </c>
       <c r="G3" t="n">
-        <v>1645.203938875824</v>
+        <v>1645.013641234165</v>
       </c>
       <c r="H3" t="n">
-        <v>1645.203938875824</v>
+        <v>1645.013641234165</v>
       </c>
       <c r="I3" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="J3" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="K3" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="L3" t="n">
-        <v>1437.199606333079</v>
+        <v>1437.033505445532</v>
       </c>
       <c r="M3" t="n">
-        <v>1437.199606333079</v>
+        <v>1437.033505445532</v>
       </c>
       <c r="N3" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="O3" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="P3" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="Q3" t="n">
-        <v>1485.165391385093</v>
+        <v>1484.992756861953</v>
       </c>
       <c r="R3" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="S3" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="T3" t="n">
-        <v>176.9295623807777</v>
+        <v>176.9090882787932</v>
       </c>
       <c r="U3" t="n">
-        <v>88.46478119038883</v>
+        <v>88.4545441393966</v>
       </c>
     </row>
     <row r="4">
@@ -642,19 +642,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>215.4687944809496</v>
+        <v>215.443724193181</v>
       </c>
       <c r="E4" t="n">
-        <v>332.0960174746977</v>
+        <v>332.0573773423994</v>
       </c>
       <c r="F4" t="n">
-        <v>332.0960174746977</v>
+        <v>332.0573773423994</v>
       </c>
       <c r="G4" t="n">
-        <v>-54.65594544870228</v>
+        <v>-54.64958610426001</v>
       </c>
       <c r="H4" t="n">
-        <v>-54.65594544870228</v>
+        <v>-54.64958610426001</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>332.0960174746977</v>
+        <v>332.0573773423994</v>
       </c>
       <c r="M4" t="n">
-        <v>332.0960174746977</v>
+        <v>332.0573773423994</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
